--- a/Companies/Consumer Food/Nestle India Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
+++ b/Companies/Consumer Food/Nestle India Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '13</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '13</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '14</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '14</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '14</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '14</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '14</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '13</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '13</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2,348.31</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2,252.30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2,313.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2,418.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2,557.80</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2,418.91</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2,313.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2,252.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2,348.31</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>2557.8</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>2252.3</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>2378.156</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>12.62</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>13.06</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11.71</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>11.222</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2,360.02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2,262.97</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2,321.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2,431.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>2,570.42</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2,431.97</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2,321.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2,262.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2,360.02</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>2570.42</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>2262.97</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>2389.378</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>982.26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1,043.73</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,150.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,123.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1,084.16</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1,123.47</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1,150.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1,043.73</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>982.26</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1150.12</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>982.26</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>1076.748</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>24.67</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>32.85</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>30.16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>29.34</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>26.63</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>32.85</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>24.67</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>28.73</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-23.71</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-109.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-5.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>71.40</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-5.43</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-109.62</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-23.71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>47.92</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-109.62</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-3.887999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>194.93</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>185.76</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>167.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>191.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>191.27</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>191.85</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>167.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>185.76</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>194.93</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>194.93</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>167.48</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>186.258</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>75.68</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>84.62</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>84.18</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>83.92</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>75.68</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>83.49</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>84.62</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>75.68000000000001</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>82.378</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>9.01</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>9.39</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10.55</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>9.228</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>604.37</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>559.49</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>573.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>572.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>642.35</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>572.60</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>573.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>559.49</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>604.37</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>642.35</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>559.49</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>590.4100000000001</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>409.87</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>384.41</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>417.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>423.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>462.94</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>423.06</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>417.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>384.41</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>409.87</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>462.94</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>384.41</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>419.514</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>15.54</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>23.12</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>30.93</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>31.90</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>23.06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>24.91</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>432.93</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>416.31</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>448.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>446.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>478.48</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>446.18</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>448.22</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>416.31</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>432.93</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>478.48</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>416.31</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>444.424</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>0.20</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>10.26</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>9.96</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>6.859999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>422.97</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>406.20</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>437.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>442.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>478.28</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>442.41</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>437.96</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>406.20</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>422.97</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>478.28</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>406.2</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>437.564</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-41.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-16.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>-16.23</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-16.38</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-41.42</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-41.42</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>-12.044</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>426.61</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>416.37</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>396.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>426.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>462.05</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>426.03</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>396.54</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>416.37</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>426.61</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>462.05</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>396.54</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>425.52</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>141.61</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>134.71</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>137.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>138.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>150.76</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>138.17</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>137.38</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>134.71</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>141.61</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>150.76</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>134.71</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>140.526</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>285.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>281.66</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>259.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>287.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>311.29</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>287.86</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>259.16</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>281.66</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>285.00</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>311.29</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>259.16</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>284.994</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>285.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>281.66</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>259.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>287.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>311.29</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>287.86</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>259.16</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>281.66</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>285.00</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>311.29</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>259.16</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>284.994</v>
       </c>
     </row>
     <row r="24">
@@ -1354,15 +1151,6 @@
         <is>
           <t>96.42</t>
         </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>96.42</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>96.42</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>96.42</v>
       </c>
     </row>
     <row r="25"/>
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>32.28</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>26.88</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>29.22</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>29.56</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>32.28</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>29.56</v>
       </c>
     </row>
     <row r="28">
@@ -1422,37 +1201,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>32.28</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>26.88</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>29.22</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>29.56</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>32.28</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>29.56</v>
       </c>
     </row>
     <row r="29"/>
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>32.28</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>26.88</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>29.22</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>29.56</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>32.28</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>29.56</v>
       </c>
     </row>
     <row r="32">
@@ -1512,37 +1273,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>32.28</t>
         </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>26.88</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>29.22</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>29.56</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>32.28</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>29.56</v>
       </c>
     </row>
     <row r="33"/>
@@ -1584,15 +1336,6 @@
           <t>3.59</t>
         </is>
       </c>
-      <c r="H35" s="2" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>3.59</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1624,15 +1367,6 @@
         <is>
           <t>37.24</t>
         </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>37.24</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>37.24</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>37.24</v>
       </c>
     </row>
     <row r="37"/>
@@ -1690,15 +1424,6 @@
           <t>6.05</t>
         </is>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>6.05</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1731,15 +1456,6 @@
           <t>100.00</t>
         </is>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1771,15 +1487,6 @@
         <is>
           <t>62.76</t>
         </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>62.76</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>62.76</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>62.76000000000001</v>
       </c>
     </row>
   </sheetData>
